--- a/sql/Inserts Funcionalidades.xlsx
+++ b/sql/Inserts Funcionalidades.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Logus\workspace3\controleDeploys\sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Logus\workspace\kaizen\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D03C40A-8C49-4F3E-A475-48B1A48028EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6DA7F0-B241-4C6B-84FC-36B08B45317D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261ADB8F-048C-4F9B-BBE9-3C7B920D8480}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{261ADB8F-048C-4F9B-BBE9-3C7B920D8480}"/>
   </bookViews>
   <sheets>
     <sheet name="FUNCIONALIDADES" sheetId="1" r:id="rId1"/>
     <sheet name="PRODUTOS" sheetId="2" r:id="rId2"/>
+    <sheet name="DROP" sheetId="3" r:id="rId3"/>
+    <sheet name="FUNÇÕES" sheetId="5" r:id="rId4"/>
+    <sheet name="TRANSIÇÕES" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>delete from security.seg_usuario_funcionalidade;</t>
   </si>
@@ -128,6 +131,138 @@
   </si>
   <si>
     <t>FUNC_ATENDIMENTO_CONSULTAR</t>
+  </si>
+  <si>
+    <t>DROP TABLE SEQUENCE;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_AMBIENTE CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_ATENDIMENTO CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_BIBLIOTECA CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_CLIENTE CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_FUNCAO CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_FUNCAO_PASSO_ITEM CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_PLANO CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_LIBERACAO CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_PROCESSO CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_PASSO CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_PRODUTO CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_PROJETO CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_PAPEL CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_RESOLUCAO CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_SOLICITACAO CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_SOLICITACAO_BIBLIOTECA CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_ITEM_SOLICITACAO CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_ITEM_ATENDIMENTO CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_TIPO_MONDAI CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_TIPO_MONDAI_PROJETO CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_PAPEL_PASSO_ITEM CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_TRANSICAO CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_URGENCIA CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_COMENTARIO CASCADE ;</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Iniciar</t>
+  </si>
+  <si>
+    <t>Concluir</t>
+  </si>
+  <si>
+    <t>Homologar</t>
+  </si>
+  <si>
+    <t>Planejar</t>
+  </si>
+  <si>
+    <t>Preparar</t>
+  </si>
+  <si>
+    <t>Realizar</t>
+  </si>
+  <si>
+    <t>Finalizar</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_KOTAE_CONFIG CASCADE ;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_PLANO_SOLICITACAO CASCADE ;</t>
+  </si>
+  <si>
+    <t>Análise e desenvolvimento das adequaçoes, correções e melhorias do produto.</t>
+  </si>
+  <si>
+    <t>Analista de Sistemas</t>
+  </si>
+  <si>
+    <t>Análise de Gestão de Configuração e Mudanças. Prepara unidades de implantação e instala.</t>
+  </si>
+  <si>
+    <t>Analista GCM</t>
+  </si>
+  <si>
+    <t>Analista de Infraestrutura</t>
+  </si>
+  <si>
+    <t>Analista Contábil</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_TOGURU CASCADE;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_ITEM_PAPEL;</t>
+  </si>
+  <si>
+    <t>DROP TABLE KZ_ITEM_FUNCAO;</t>
   </si>
 </sst>
 </file>
@@ -485,7 +620,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:C24"/>
     </sheetView>
   </sheetViews>
@@ -1439,155 +1574,524 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B010E3-E0E1-4C70-B6C9-7468F1EBD5F4}">
   <sheetPr codeName="Planilha2"/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E1" sqref="E1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="88.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="str">
+        <f t="shared" ref="E1:E8" si="0">"INSERT INTO kz_produto(seq_produto, flg_ativo, nom_produto) VALUES ('"&amp;B1&amp;"','"&amp;C1&amp;"','"&amp;D1&amp;"');"</f>
+        <v>INSERT INTO kz_produto(seq_produto, flg_ativo, nom_produto) VALUES ('1','1','SiplagService');</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO kz_produto(seq_produto, flg_ativo, nom_produto) VALUES ('2','1','Siplag');</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO kz_produto(seq_produto, flg_ativo, nom_produto) VALUES ('3','1','Flexvision');</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO kz_produto(seq_produto, flg_ativo, nom_produto) VALUES ('4','1','Security');</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO kz_produto(seq_produto, flg_ativo, nom_produto) VALUES ('5','1','Guarani');</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO kz_produto(seq_produto, flg_ativo, nom_produto) VALUES ('6','1','Framework');</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO kz_produto(seq_produto, flg_ativo, nom_produto) VALUES ('7','1','ProjetosLib');</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO kz_produto(seq_produto, flg_ativo, nom_produto) VALUES ('8','1','Portal');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671E8111-4586-487E-9037-8F7FB3494C01}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3745A9-051E-4ECD-BF49-B7F3547E48DD}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="84.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
       <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="str">
-        <f>"INSERT INTO public.cd_produto(
-	seq_produto, flg_ativo, nom_produto)
-	VALUES ('"&amp;A1&amp;"','"&amp;B1&amp;"','"&amp;C1&amp;"');"</f>
-        <v>INSERT INTO public.cd_produto(
-	seq_produto, flg_ativo, nom_produto)
-	VALUES ('1','1','SiplagService');</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="str">
+        <f>"INSERT INTO public.kz_funcao( seq_funcao, flg_ativo, dsc_funcao, nom_funcao) VALUES ("&amp;A1&amp;", "&amp;B1&amp;", '"&amp;C1&amp;"', '"&amp;D1&amp;"');"</f>
+        <v>INSERT INTO public.kz_funcao( seq_funcao, flg_ativo, dsc_funcao, nom_funcao) VALUES (1, true, 'Análise e desenvolvimento das adequaçoes, correções e melhorias do produto.', 'Analista de Sistemas');</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D8" si="0">"INSERT INTO public.cd_produto(
-	seq_produto, flg_ativo, nom_produto)
-	VALUES ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"');"</f>
-        <v>INSERT INTO public.cd_produto(
-	seq_produto, flg_ativo, nom_produto)
-	VALUES ('2','1','Siplag');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F4" si="0">"INSERT INTO public.kz_funcao( seq_funcao, flg_ativo, dsc_funcao, nom_funcao) VALUES ("&amp;A2&amp;", "&amp;B2&amp;", '"&amp;C2&amp;"', '"&amp;D2&amp;"');"</f>
+        <v>INSERT INTO public.kz_funcao( seq_funcao, flg_ativo, dsc_funcao, nom_funcao) VALUES (2, true, 'Análise de Gestão de Configuração e Mudanças. Prepara unidades de implantação e instala.', 'Analista GCM');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO public.cd_produto(
-	seq_produto, flg_ativo, nom_produto)
-	VALUES ('3','1','Flexvision');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO public.kz_funcao( seq_funcao, flg_ativo, dsc_funcao, nom_funcao) VALUES (3, true, '', 'Analista de Infraestrutura');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO public.kz_funcao( seq_funcao, flg_ativo, dsc_funcao, nom_funcao) VALUES (4, true, '', 'Analista Contábil');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC14BC4-D803-40B5-9F72-C0F03469706F}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO public.cd_produto(
-	seq_produto, flg_ativo, nom_produto)
-	VALUES ('4','1','Security');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E10" si="0">"INSERT INTO public.kz_transicao(seq_transicao, flg_ativo, dsc_transicao, nom_transicao) VALUES ("&amp;A4&amp;",  "&amp;B4&amp;", '"&amp;C4&amp;"', '"&amp;D4&amp;"');"</f>
+        <v>INSERT INTO public.kz_transicao(seq_transicao, flg_ativo, dsc_transicao, nom_transicao) VALUES (1,  true, '', 'Iniciar');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO public.kz_transicao(seq_transicao, flg_ativo, dsc_transicao, nom_transicao) VALUES (2,  true, '', 'Concluir');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO public.kz_transicao(seq_transicao, flg_ativo, dsc_transicao, nom_transicao) VALUES (3,  true, '', 'Homologar');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO public.kz_transicao(seq_transicao, flg_ativo, dsc_transicao, nom_transicao) VALUES (4,  true, '', 'Planejar');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO public.cd_produto(
-	seq_produto, flg_ativo, nom_produto)
-	VALUES ('5','1','Guarani');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO public.kz_transicao(seq_transicao, flg_ativo, dsc_transicao, nom_transicao) VALUES (5,  true, '', 'Preparar');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO public.cd_produto(
-	seq_produto, flg_ativo, nom_produto)
-	VALUES ('6','1','Framework');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO public.kz_transicao(seq_transicao, flg_ativo, dsc_transicao, nom_transicao) VALUES (6,  true, '', 'Realizar');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO public.cd_produto(
-	seq_produto, flg_ativo, nom_produto)
-	VALUES ('7','1','ProjetosLib');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO public.cd_produto(
-	seq_produto, flg_ativo, nom_produto)
-	VALUES ('8','1','Portal');</v>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO public.kz_transicao(seq_transicao, flg_ativo, dsc_transicao, nom_transicao) VALUES (7,  true, '', 'Finalizar');</v>
       </c>
     </row>
   </sheetData>
